--- a/Documents/证书.xlsx
+++ b/Documents/证书.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16968" windowHeight="9780"/>
+    <workbookView windowWidth="16968" windowHeight="9780" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="T_Diploma" sheetId="1" r:id="rId1"/>
@@ -288,10 +288,10 @@
     <t>1_1</t>
   </si>
   <si>
-    <t>王宇翔</t>
-  </si>
-  <si>
-    <t>RoleSprite/王宇翔</t>
+    <t>王翔宇</t>
+  </si>
+  <si>
+    <t>RoleSprite/王翔宇</t>
   </si>
   <si>
     <t>1_2</t>
@@ -1447,7 +1447,7 @@
   <sheetPr/>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -1668,8 +1668,8 @@
   <sheetPr/>
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
